--- a/Project2/Neural Style Transfer/configuration_sheet.xlsx
+++ b/Project2/Neural Style Transfer/configuration_sheet.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batfleck\APB_DL_EXERCISES\Project 4 Style Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C79A6CF-5E7F-4ABD-B60C-890842171CB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5B115D-BFC7-4027-B96C-614E75FB010F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A5E8265-85E5-40F5-9E39-2E46868BBC7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{1A5E8265-85E5-40F5-9E39-2E46868BBC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Style_transfer_vgg19" sheetId="1" r:id="rId1"/>
+    <sheet name="style_weight_layer1" sheetId="2" r:id="rId2"/>
+    <sheet name="style_weight_layer2" sheetId="3" r:id="rId3"/>
+    <sheet name="style_weight_layer3" sheetId="4" r:id="rId4"/>
+    <sheet name="style_weight_layer4" sheetId="5" r:id="rId5"/>
+    <sheet name="style_weight_layer5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t>Values</t>
   </si>
@@ -78,15 +83,6 @@
   </si>
   <si>
     <t>facepaint.jpg</t>
-  </si>
-  <si>
-    <t>display_rows</t>
-  </si>
-  <si>
-    <t>display_columns</t>
-  </si>
-  <si>
-    <t>subset_multiplier</t>
   </si>
 </sst>
 </file>
@@ -514,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FF51D1-4A55-43DA-BB0C-F5B6DBA802B4}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -580,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -588,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -596,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -604,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -629,30 +625,6 @@
       </c>
       <c r="B13" s="3">
         <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -664,4 +636,650 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D312E27-7D29-49BE-BADB-4D60146808E0}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="\\styles\\oil_paintng.jpg" xr:uid="{0F24767A-F9D0-4F1A-87B2-DDAEB14FF941}"/>
+    <hyperlink ref="B5" r:id="rId2" display="\\contents\\scenic view.jpg" xr:uid="{3AA7AE31-CA6A-49FC-901A-06E43A6B9510}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0279E2D-CF14-41FF-BEF1-4E64C12B3F4A}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="\\styles\\oil_paintng.jpg" xr:uid="{A8C376EB-A695-48AE-BFEB-4E7A1B75F9E3}"/>
+    <hyperlink ref="B5" r:id="rId2" display="\\contents\\scenic view.jpg" xr:uid="{FF99D65B-32BE-45E1-B8B0-5CE802AC5C3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DEF45F-8217-4AB0-B903-CE1315888FEA}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="\\styles\\oil_paintng.jpg" xr:uid="{C7C567B8-E7B4-4450-B711-347BB8BBBE47}"/>
+    <hyperlink ref="B5" r:id="rId2" display="\\contents\\scenic view.jpg" xr:uid="{F28946F5-8482-437A-9DAE-3C1E9E4B09DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFEB941-5E62-4C63-8746-4E0E1654E47E}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="\\styles\\oil_paintng.jpg" xr:uid="{DB78C626-93DC-45C2-9E4A-B183721F9819}"/>
+    <hyperlink ref="B5" r:id="rId2" display="\\contents\\scenic view.jpg" xr:uid="{87F7ACE7-BA8C-42AB-90FD-2BFC9FC878A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3076E3A6-1903-4D98-A276-361253C7B5F8}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="\\styles\\oil_paintng.jpg" xr:uid="{DCD5549A-EFD8-4DE7-BA60-AFA26EBB2254}"/>
+    <hyperlink ref="B5" r:id="rId2" display="\\contents\\scenic view.jpg" xr:uid="{4ABF044B-060D-4129-B802-ABBFA90A9E42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>